--- a/biology/Biologie cellulaire et moléculaire/Lamina_lucida/Lamina_lucida.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Lamina_lucida/Lamina_lucida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lamina lucida, ou lamina rara, fait partie avec la lamina densa et la lamina reticulata des couches de la lame basale. 
 Cette couche de la lame basale se situe du côté où se trouve le tissu épithélial.
